--- a/sputnik/personal/uch/uch139.xlsx
+++ b/sputnik/personal/uch/uch139.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Оплачено</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2019/2020(с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -74,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -175,7 +178,7 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -495,10 +498,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C3:C15"/>
+      <selection activeCell="C16" sqref="C16:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -680,6 +683,30 @@
         <v>10110.1</v>
       </c>
       <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>43952</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="11">
+        <v>11811.8</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch139.xlsx
+++ b/sputnik/personal/uch/uch139.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Оплачено</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оплата  за аренду земел. участка №139 за 2015/2016 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">оплата  за аренду земел. участка №139 за 2016/2017 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">оплата  ЗОП 2015/2016 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">оплата  ЗОП 2016/2017 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">оплата  членского взноса 2015/2016 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">оплата  членского взноса 2016/2017 </t>
   </si>
 </sst>
 </file>
@@ -498,10 +516,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -697,16 +715,76 @@
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="12">
+        <v>44151</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="6">
+        <v>500.5</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="12">
+        <v>44151</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="D18" s="5">
+        <v>500.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>44151</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="6">
+        <v>519.30999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>44151</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="6">
+        <v>518.70000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>44151</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="5">
+        <v>1114.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>44151</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="6">
+        <v>8199.1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch139.xlsx
+++ b/sputnik/personal/uch/uch139.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Оплачено</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t xml:space="preserve">оплата  членского взноса 2016/2017 </t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Начислена оплата за аренду земельного участка за 2021</t>
   </si>
 </sst>
 </file>
@@ -516,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -785,6 +791,78 @@
       <c r="D22" s="6">
         <v>8199.1</v>
       </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>44317</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="11">
+        <v>12130.3</v>
+      </c>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>44197</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="11">
+        <v>448.81</v>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
